--- a/biology/Médecine/Els_Veder-Smit/Els_Veder-Smit.xlsx
+++ b/biology/Médecine/Els_Veder-Smit/Els_Veder-Smit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elizabeth Veder-Smit, dite Els Veder-Smit, née le 29 août 1921 à Kinderdijk (Pays-Bas) et morte le 26 août 2020 à La Haye (Pays-Bas), est une femme politique néerlandaise. Membre du Parti populaire pour la liberté et la démocratie (VVD), elle est députée de 1967 à 1978, secrétaire d'État à la Santé et à l'Environnement de 1978 à 1981 puis sénatrice de 1981 à 1991.
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née Elizabeth Veder en 1921, elle se marie en 1947. Son époux est vice-président du tribunal de Leeuwarden[1]. Elle est wethouder (nl) (échevin) de Zeist de 1958 à 1962 puis conseillère municipale de Leeuwarden de 1962 à 1966[1].
-Membre du Parti populaire pour la liberté et la démocratie (VVD), elle est élue députée à la Seconde Chambre des États généraux en 1967. Durant sa carrière parlementaire, elle s'investit particulièrement sur les sujets relatifs à la santé. En 1975, elle dépose avec Aart Geurtsen (nl) une proposition de loi légalisant l'avortement ; celle-ci est combinée l'année suivante avec un projet presque similaire, qui est rejeté par le Sénat en décembre 1976[1].
-En 1978, elle est nommée secrétaire d'État à la Santé et à l'Environnement dans le gouvernement du Premier ministre Dries van Agt[2]. Elle est à l'origine d'une loi sur les tarifs des soins de santé et d'une autre sur les sages-femmes[1].
-En 1981, elle devient sénatrice au sein de la Première Chambre des États généraux. Elle est présidente de la commission permanente de la coopération au développement de 1983 à 1987 et vice-présidente de la commission permanente du bien-être et de la santé publique de 1987 à 1991. Elle intervient lors du débat d'un projet de loi sur la protection sociale et lors d'un autre lié à la santé dans l'enseignement secondaire. Elle quitte le Sénat en 1991[1].
-Elle est présidente de la STOOM (Fondation pour la recherche et le développement en santé publique) de 1987 à 1999, présidente honoraire de la Nationale Kruisvereniging (nl) à partir de 1990 et présidente du LCVV (Centre national d'infirmerie et de soins) de 1993 à 1996[1].
-Elle meurt en 2020[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née Elizabeth Veder en 1921, elle se marie en 1947. Son époux est vice-président du tribunal de Leeuwarden. Elle est wethouder (nl) (échevin) de Zeist de 1958 à 1962 puis conseillère municipale de Leeuwarden de 1962 à 1966.
+Membre du Parti populaire pour la liberté et la démocratie (VVD), elle est élue députée à la Seconde Chambre des États généraux en 1967. Durant sa carrière parlementaire, elle s'investit particulièrement sur les sujets relatifs à la santé. En 1975, elle dépose avec Aart Geurtsen (nl) une proposition de loi légalisant l'avortement ; celle-ci est combinée l'année suivante avec un projet presque similaire, qui est rejeté par le Sénat en décembre 1976.
+En 1978, elle est nommée secrétaire d'État à la Santé et à l'Environnement dans le gouvernement du Premier ministre Dries van Agt. Elle est à l'origine d'une loi sur les tarifs des soins de santé et d'une autre sur les sages-femmes.
+En 1981, elle devient sénatrice au sein de la Première Chambre des États généraux. Elle est présidente de la commission permanente de la coopération au développement de 1983 à 1987 et vice-présidente de la commission permanente du bien-être et de la santé publique de 1987 à 1991. Elle intervient lors du débat d'un projet de loi sur la protection sociale et lors d'un autre lié à la santé dans l'enseignement secondaire. Elle quitte le Sénat en 1991.
+Elle est présidente de la STOOM (Fondation pour la recherche et le développement en santé publique) de 1987 à 1999, présidente honoraire de la Nationale Kruisvereniging (nl) à partir de 1990 et présidente du LCVV (Centre national d'infirmerie et de soins) de 1993 à 1996.
+Elle meurt en 2020.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1981 : chevalier de l'ordre du Lion néerlandais</t>
         </is>
